--- a/Project/and7697_sprint1/Product Backlog.xlsx
+++ b/Project/and7697_sprint1/Product Backlog.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="990" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="992" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Product Backlog" sheetId="1" state="visible" r:id="rId2"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="152">
   <si>
     <t xml:space="preserve">Product Name:</t>
   </si>
@@ -399,88 +399,85 @@
     <t xml:space="preserve">UML</t>
   </si>
   <si>
+    <t xml:space="preserve">AD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Add methods to Media and derived classes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C – Completed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Added get methods only.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Media</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Code</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Write and compile empty Media class</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Variables and Constructor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Code </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Operator Overload &lt;&lt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test Constructor and &lt;&lt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Add Get Methods</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test get methods in main</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Do the same for all other methods and classes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Should detail out all tasks done for completing this project</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wrap Up</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Update UML to match new methods if changed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N + 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Add methods to Bundle and derived classes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Follow Same pattern used in Media for Bundle and all other classes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Demo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wrap_Up</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Delivery</t>
+  </si>
+  <si>
     <t xml:space="preserve">Initials Here</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Add methods to Media and derived classes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C – Completed</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Added get methods only.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Media</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Code</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Write and compile empty Media class</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Variables and Constructor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Code </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Operator Overload &lt;&lt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NS - Not Started</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Test</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Test Constructor and &lt;&lt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Add Get Methods</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Test get methods in main</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Compile Errors with accessing private variables</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Do the same for all other methods and classes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Should detail out all tasks done for completing this project</t>
-  </si>
-  <si>
-    <t xml:space="preserve">N</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wrap Up</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Update UML to match new methods if changed</t>
-  </si>
-  <si>
-    <t xml:space="preserve">N + 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Add methods to Bundle and derived classes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Follow Same pattern used in Media for Bundle and all other classes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Demo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wrap_Up</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Delivery</t>
   </si>
   <si>
     <t xml:space="preserve">Zip up and deliver sprint #1 (UML, Code, and spreadsheet)</t>
@@ -968,11 +965,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="0"/>
-        <c:axId val="63389264"/>
-        <c:axId val="2654840"/>
+        <c:axId val="50193812"/>
+        <c:axId val="15727160"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="63389264"/>
+        <c:axId val="50193812"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1046,14 +1043,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2654840"/>
+        <c:crossAx val="15727160"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2654840"/>
+        <c:axId val="15727160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1134,7 +1131,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="63389264"/>
+        <c:crossAx val="50193812"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1452,10 +1449,10 @@
                   <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1470,11 +1467,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="0"/>
-        <c:axId val="81912389"/>
-        <c:axId val="76323020"/>
+        <c:axId val="28544889"/>
+        <c:axId val="41106859"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="81912389"/>
+        <c:axId val="28544889"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1548,14 +1545,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="76323020"/>
+        <c:crossAx val="41106859"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="76323020"/>
+        <c:axId val="41106859"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1636,7 +1633,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="81912389"/>
+        <c:crossAx val="28544889"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1972,11 +1969,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="0"/>
-        <c:axId val="47268638"/>
-        <c:axId val="22501096"/>
+        <c:axId val="71032889"/>
+        <c:axId val="16890469"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="47268638"/>
+        <c:axId val="71032889"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2050,14 +2047,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="22501096"/>
+        <c:crossAx val="16890469"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="22501096"/>
+        <c:axId val="16890469"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2138,7 +2135,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="47268638"/>
+        <c:crossAx val="71032889"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2474,11 +2471,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="0"/>
-        <c:axId val="39275903"/>
-        <c:axId val="11841848"/>
+        <c:axId val="49081331"/>
+        <c:axId val="4704043"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="39275903"/>
+        <c:axId val="49081331"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2552,14 +2549,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="11841848"/>
+        <c:crossAx val="4704043"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="11841848"/>
+        <c:axId val="4704043"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2640,7 +2637,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="39275903"/>
+        <c:crossAx val="49081331"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2976,11 +2973,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="0"/>
-        <c:axId val="47814892"/>
-        <c:axId val="8439301"/>
+        <c:axId val="8971600"/>
+        <c:axId val="8319402"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="47814892"/>
+        <c:axId val="8971600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3054,14 +3051,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="8439301"/>
+        <c:crossAx val="8319402"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="8439301"/>
+        <c:axId val="8319402"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3142,7 +3139,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="47814892"/>
+        <c:crossAx val="8971600"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3478,11 +3475,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="0"/>
-        <c:axId val="60943841"/>
-        <c:axId val="14942994"/>
+        <c:axId val="67016042"/>
+        <c:axId val="25181228"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="60943841"/>
+        <c:axId val="67016042"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3556,14 +3553,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="14942994"/>
+        <c:crossAx val="25181228"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="14942994"/>
+        <c:axId val="25181228"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3644,7 +3641,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="60943841"/>
+        <c:crossAx val="67016042"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3683,9 +3680,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>204480</xdr:colOff>
+      <xdr:colOff>203400</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>86400</xdr:rowOff>
+      <xdr:rowOff>85320</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -3693,8 +3690,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="5733720" y="87480"/>
-        <a:ext cx="11910960" cy="2742120"/>
+        <a:off x="5762520" y="87480"/>
+        <a:ext cx="12109680" cy="2741040"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -3718,9 +3715,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>6840</xdr:colOff>
+      <xdr:colOff>5760</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>45000</xdr:rowOff>
+      <xdr:rowOff>43920</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -3729,7 +3726,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="2916360" y="23040"/>
-        <a:ext cx="7587000" cy="2749680"/>
+        <a:ext cx="7719120" cy="2748600"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -3753,9 +3750,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>334440</xdr:colOff>
+      <xdr:colOff>333360</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>21960</xdr:rowOff>
+      <xdr:rowOff>20880</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -3764,7 +3761,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="2478240" y="23040"/>
-        <a:ext cx="5637960" cy="2742120"/>
+        <a:ext cx="5636880" cy="2741040"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -3788,9 +3785,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>334440</xdr:colOff>
+      <xdr:colOff>333360</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>21960</xdr:rowOff>
+      <xdr:rowOff>20880</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -3799,7 +3796,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="2478240" y="23040"/>
-        <a:ext cx="5637960" cy="2742120"/>
+        <a:ext cx="5636880" cy="2741040"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -3823,9 +3820,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>334440</xdr:colOff>
+      <xdr:colOff>333360</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>21960</xdr:rowOff>
+      <xdr:rowOff>20880</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -3834,7 +3831,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="2478240" y="23040"/>
-        <a:ext cx="5637960" cy="2742120"/>
+        <a:ext cx="5636880" cy="2741040"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -3858,9 +3855,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>334440</xdr:colOff>
+      <xdr:colOff>333360</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>21960</xdr:rowOff>
+      <xdr:rowOff>20880</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -3869,7 +3866,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="2478240" y="23040"/>
-        <a:ext cx="5637960" cy="2742120"/>
+        <a:ext cx="5636880" cy="2741040"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -3889,8 +3886,8 @@
   </sheetPr>
   <dimension ref="A1:J48"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E22" activeCellId="0" sqref="E22"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E24" activeCellId="0" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -3898,10 +3895,10 @@
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="3" min="2" style="0" width="8.57085020242915"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="13.7125506072874"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="12.9595141700405"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="10.1781376518219"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="39.5263157894737"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="46.3805668016194"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="13.2834008097166"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="10.3886639676113"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="40.5991902834008"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="47.3481781376518"/>
     <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -4155,7 +4152,9 @@
       <c r="D22" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="E22" s="1"/>
+      <c r="E22" s="1" t="n">
+        <v>1</v>
+      </c>
       <c r="F22" s="0" t="s">
         <v>29</v>
       </c>
@@ -4949,8 +4948,8 @@
   </sheetPr>
   <dimension ref="A1:H33"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B12" activeCellId="0" sqref="B12"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G33" activeCellId="0" sqref="G33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -4958,8 +4957,8 @@
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.3886639676113"/>
     <col collapsed="false" hidden="false" max="3" min="2" style="0" width="11.0323886639676"/>
     <col collapsed="false" hidden="false" max="5" min="4" style="0" width="10.7125506072875"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="49.4898785425101"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="14.6761133603239"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="50.668016194332"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="14.9959514170041"/>
     <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -5045,7 +5044,7 @@
         <v>116</v>
       </c>
       <c r="B11" s="1" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5053,8 +5052,7 @@
         <v>117</v>
       </c>
       <c r="B12" s="1" t="n">
-        <f aca="false">B11</f>
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5109,7 +5107,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="n">
         <v>2</v>
       </c>
@@ -5132,7 +5130,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="n">
         <v>3</v>
       </c>
@@ -5155,7 +5153,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="n">
         <v>4</v>
       </c>
@@ -5175,10 +5173,10 @@
         <v>133</v>
       </c>
       <c r="G21" s="0" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="n">
         <v>5</v>
       </c>
@@ -5189,19 +5187,19 @@
         <v>128</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E22" s="0" t="s">
         <v>124</v>
       </c>
       <c r="F22" s="0" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G22" s="0" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="n">
         <v>6</v>
       </c>
@@ -5218,7 +5216,7 @@
         <v>124</v>
       </c>
       <c r="F23" s="0" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G23" s="0" t="s">
         <v>126</v>
@@ -5235,19 +5233,16 @@
         <v>128</v>
       </c>
       <c r="D24" s="0" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E24" s="0" t="s">
         <v>124</v>
       </c>
       <c r="F24" s="0" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G24" s="0" t="s">
         <v>126</v>
-      </c>
-      <c r="H24" s="0" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5257,23 +5252,23 @@
     </row>
     <row r="26" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B29" s="0" t="s">
         <v>27</v>
       </c>
       <c r="C29" s="0" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D29" s="0" t="s">
         <v>123</v>
@@ -5282,15 +5277,15 @@
         <v>124</v>
       </c>
       <c r="F29" s="0" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="G29" s="0" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B30" s="0" t="s">
         <v>34</v>
@@ -5305,7 +5300,7 @@
         <v>124</v>
       </c>
       <c r="F30" s="0" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="G30" s="0" t="s">
         <v>126</v>
@@ -5313,30 +5308,30 @@
     </row>
     <row r="31" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
+        <v>146</v>
+      </c>
+      <c r="B33" s="0" t="s">
+        <v>147</v>
+      </c>
+      <c r="C33" s="0" t="s">
         <v>148</v>
       </c>
-      <c r="B33" s="0" t="s">
+      <c r="D33" s="0" t="s">
         <v>149</v>
       </c>
-      <c r="C33" s="0" t="s">
+      <c r="E33" s="0" t="s">
         <v>150</v>
       </c>
-      <c r="D33" s="0" t="s">
+      <c r="F33" s="0" t="s">
         <v>151</v>
       </c>
-      <c r="E33" s="0" t="s">
-        <v>124</v>
-      </c>
-      <c r="F33" s="0" t="s">
-        <v>152</v>
-      </c>
       <c r="G33" s="0" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
     </row>
   </sheetData>
